--- a/data/trans_camb/IMC_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/IMC_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>7,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>8,64</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,09</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,53</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 6,78</t>
+          <t>-6,87; 6,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 8,78</t>
+          <t>-5,12; 7,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 8,1</t>
+          <t>-9,04; 5,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 4,98</t>
+          <t>0,88; 14,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 5,31</t>
+          <t>-1,6; 9,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 8,2</t>
+          <t>-6,04; 4,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 3,48</t>
+          <t>-5,12; 5,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 4,63</t>
+          <t>-7,85; 3,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 6,5</t>
+          <t>3,68; 14,26</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 7,9</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 3,66</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 4,55</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 3,08</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 12,32</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,24; 7,03</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>-0,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>-2,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,32%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>-1,5%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>-0,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>-4,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>19,4%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-3,64%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16,02%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,45; 12,33</t>
+          <t>-11,18; 11,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 15,72</t>
+          <t>-8,25; 14,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 15,02</t>
+          <t>-14,87; 10,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 11,53</t>
+          <t>1,56; 29,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 11,97</t>
+          <t>-2,3; 16,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 18,99</t>
+          <t>-12,28; 9,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 6,95</t>
+          <t>-10,41; 12,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 9,39</t>
+          <t>-15,57; 8,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 13,16</t>
+          <t>7,82; 35,26</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 16,82</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-9,22; 7,4</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-6,9; 9,19</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-12,08; 6,02</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>7,48; 26,24</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 13,55</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>-2,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>4,86</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 5,2</t>
+          <t>-10,37; 4,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 7,72</t>
+          <t>-7,87; 6,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 7,06</t>
+          <t>-7,97; 7,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 8,86</t>
+          <t>-11,85; 5,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 7,18</t>
+          <t>-9,99; 10,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 11,46</t>
+          <t>-3,79; 9,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 4,51</t>
+          <t>-5,69; 6,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 5,07</t>
+          <t>-6,53; 7,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 6,62</t>
+          <t>-4,0; 13,88</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,66; 11,29</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 4,6</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 4,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 5,09</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,3; 6,87</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 8,41</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>-5,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>-1,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-3,7%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>-4,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,3%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,16%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-0,44%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,25%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 8,78</t>
+          <t>-15,54; 7,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 13,75</t>
+          <t>-11,78; 11,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 12,38</t>
+          <t>-12,09; 11,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 19,98</t>
+          <t>-18,83; 9,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,18; 16,75</t>
+          <t>-15,49; 20,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,78; 25,52</t>
+          <t>-7,62; 21,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 8,8</t>
+          <t>-11,51; 15,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 10,14</t>
+          <t>-12,99; 16,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 13,1</t>
+          <t>-7,85; 32,12</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-15,51; 26,39</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-8,9; 8,87</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-7,72; 9,63</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; 9,79</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-9,54; 13,11</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 16,43</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>15,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,1</t>
+          <t>17,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>12,28</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-8,81</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-7,63</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,02</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-14,41</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,2</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,36</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,4</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,08; 31,17</t>
+          <t>4,02; 28,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,15; 33,02</t>
+          <t>7,25; 30,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-1,28; 26,85</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-20,98; 4,01</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 4,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-20,83; 4,26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-17,8; 6,2</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-26,64; -0,49</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-5,09; 14,1</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 15,35</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 13,47</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 14,95</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-11,16; 9,91</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>32,24%</t>
+          <t>29,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>19,93%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-14,38%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-12,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-12,92%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-10,2%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-24,4%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,64%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>10,57%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7,66%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>10,59%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,26%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 63,29</t>
+          <t>5,89; 53,39</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,2; 66,01</t>
+          <t>10,38; 56,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-2,02; 51,39</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-31,37; 6,88</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,26; 9,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-32,6; 7,73</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-27,48; 11,97</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-41,86; -0,92</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; 26,09</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 28,61</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 24,41</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 26,81</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-17,24; 18,38</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>-2,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,8</t>
+          <t>7,43</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,94</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 5,58</t>
+          <t>-4,25; 4,96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,85</t>
+          <t>-2,08; 6,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 5,31</t>
+          <t>-4,81; 5,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 3,58</t>
+          <t>-3,1; 7,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 2,93</t>
+          <t>-1,51; 8,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 5,95</t>
+          <t>-3,76; 3,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 2,93</t>
+          <t>-4,33; 3,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 3,99</t>
+          <t>-6,43; 1,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,08</t>
+          <t>2,99; 12,08</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-2,01; 7,28</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 3,36</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 4,12</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-4,18; 2,23</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 8,44</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 6,62</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,82%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,02%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>-0,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,47%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>-5,02%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>16,35%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>9,03%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5,52%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 9,84</t>
+          <t>-6,78; 8,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 14,02</t>
+          <t>-3,28; 12,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 9,38</t>
+          <t>-7,88; 10,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 7,67</t>
+          <t>-4,74; 13,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 6,26</t>
+          <t>-2,42; 15,4</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 12,95</t>
+          <t>-7,5; 8,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 5,55</t>
+          <t>-8,61; 7,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 7,6</t>
+          <t>-12,83; 3,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 7,87</t>
+          <t>6,28; 27,87</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 15,15</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-4,62; 6,44</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 7,97</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 4,2</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 16,32</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 12,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
